--- a/src/main/resources/input_test_3tab_tabel_design_backup.xlsx
+++ b/src/main/resources/input_test_3tab_tabel_design_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z003985/repos/work-with-excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D0512-F266-7048-80CE-8A4BC537B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C395DBD-88DC-1D42-AAE5-1BACE34635C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42900" yWindow="-3340" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{F084E14F-F793-C04D-804A-E5ECAF200BD2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>val13</t>
   </si>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -232,6 +232,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,13 +710,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="203" x14ac:dyDescent="0.5">
@@ -758,8 +759,8 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4" s="9">
+        <v>2177483647</v>
       </c>
     </row>
   </sheetData>
